--- a/test-data/Opencart_LoginData.xlsx
+++ b/test-data/Opencart_LoginData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9C047181-3B6E-47CF-BA15-28615FA0CE9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iMark Admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D962DD5-333E-451F-B546-D17C025537B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="4905" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -38,16 +42,10 @@
     <t>Lakshmi</t>
   </si>
   <si>
-    <t>Valid</t>
-  </si>
-  <si>
     <t>laksh@yahoo.com</t>
   </si>
   <si>
     <t>Laxmi</t>
-  </si>
-  <si>
-    <t>Invalid</t>
   </si>
   <si>
     <t>laks@yahoo.com</t>
@@ -69,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +83,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +154,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,67 +502,67 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="4">
+        <v>11111111</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
         <v>11111111</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="B6" r:id="rId6" display="test@123" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="B7" r:id="rId6" display="test@123" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="B2" r:id="rId7" display="test@123" xr:uid="{34A32734-D0EF-4560-908A-1F3B966263CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>